--- a/templates/GDKT_Template.xlsx
+++ b/templates/GDKT_Template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\2023\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CCA21D-7828-49A7-B20D-066A7C9A667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB498BAD-256D-4246-B1C5-5FDD914456D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCGDKT" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">BCGDKT!$A$1:$J$50</definedName>
@@ -132,9 +132,6 @@
     <t>Bộ phận kỹ thuật sẽ tiến hành sấy khô ống soi để khắc phục hiện tượng đốm đen, tuy nhiên, chúng tôi khuyến cáo nên thay đầu thu hình để hình ảnh đạt được chất lượng tốt nhất.</t>
   </si>
   <si>
-    <t>'Với các hư hỏng đã giám định cho ống soi qua đường mũi, hãng khuyến cáo cần thiết phải thay toàn bộ thân ống soi (ISA). Tuy nhiên, để giảm thiểu chi phí, Quý Khách có thể chọn giải pháp thay từng phần nêu trên nhưng sẽ có rủi ro hỏng chíp thu hình (CHA) trong quá trình sửa chữa. Vì vậy, đề nghị Quý khách xem xét và xác nhận phương án lựa chọn.</t>
-  </si>
-  <si>
     <t>Tần suất sử dụng.</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>PHỤ TRÁCH TRUNG TÂM KỸ THUẬT</t>
+  </si>
+  <si>
+    <t>Với các hư hỏng đã giám định cho ống soi qua đường mũi, hãng khuyến cáo cần thiết phải thay toàn bộ thân ống soi (ISA). Tuy nhiên, để giảm thiểu chi phí, Quý Khách có thể chọn giải pháp thay từng phần nêu trên nhưng sẽ có rủi ro hỏng chíp thu hình (CHA) trong quá trình sửa chữa. Vì vậy, đề nghị Quý khách xem xét và xác nhận phương án lựa chọn.</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -380,6 +380,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -387,82 +450,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,7 +1254,7 @@
   <dimension ref="A5:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1288,30 +1276,30 @@
       <c r="I5" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
@@ -1327,18 +1315,18 @@
       <c r="J10" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1349,106 +1337,106 @@
       <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -1456,39 +1444,39 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:10" s="52" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="49" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="49" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="50"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1518,15 +1506,15 @@
     </row>
     <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
@@ -1555,17 +1543,17 @@
     </row>
     <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
@@ -1597,33 +1585,33 @@
       <c r="A39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
@@ -1638,18 +1626,18 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
@@ -1665,7 +1653,7 @@
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -1674,10 +1662,10 @@
       <c r="F44" s="27"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="25"/>
+      <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
@@ -1740,19 +1728,19 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="J50" s="26"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
@@ -1781,6 +1769,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A12:J12"/>
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="D16:F16"/>
@@ -1797,43 +1810,24 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.2" top="0.05" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{118DD4A2-2B9F-4316-88C0-7815B6D04CCF}">
           <x14:formula1>
             <xm:f>Sheet1!$A$10:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>F30:G30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{644DE0ED-51F0-4EC1-BFBB-39B36A38FF51}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B33:J33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1846,36 +1840,36 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1884,32 +1878,32 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1922,9 +1916,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2060,26 +2057,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627B9F33-52EF-4FD1-854C-E5ABF9D4669E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED90EC8F-59FD-4FD1-B41D-2067B0AE2CEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66c8120c-852b-4f49-8fa7-ff6717d33796"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2103,9 +2089,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED90EC8F-59FD-4FD1-B41D-2067B0AE2CEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627B9F33-52EF-4FD1-854C-E5ABF9D4669E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66c8120c-852b-4f49-8fa7-ff6717d33796"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/GDKT_Template.xlsx
+++ b/templates/GDKT_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\2023\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB498BAD-256D-4246-B1C5-5FDD914456D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFBA97D-6F0C-4C4A-B078-780754F7F5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCGDKT" sheetId="1" r:id="rId1"/>
@@ -383,71 +383,71 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1253,55 +1253,55 @@
   </sheetPr>
   <dimension ref="A5:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.08984375" style="2"/>
-    <col min="10" max="10" width="18.6328125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H5" s="12"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
@@ -1314,171 +1314,171 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="40" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="40" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="35"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1490,7 +1490,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -1504,19 +1504,19 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
         <v>27</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
     </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="22"/>
       <c r="C35" s="19"/>
@@ -1541,21 +1541,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="12"/>
@@ -1567,7 +1567,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
@@ -1581,39 +1581,39 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -1625,21 +1625,21 @@
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="39" t="s">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1651,23 +1651,23 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="46"/>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1679,7 +1679,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1691,7 +1691,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="4"/>
       <c r="C47" s="14"/>
@@ -1703,7 +1703,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1715,7 +1715,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1727,53 +1727,67 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B39:J39"/>
@@ -1789,27 +1803,13 @@
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A12:J12"/>
     <mergeCell ref="B33:J33"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.2" top="0.05" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1843,10 +1843,10 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="48"/>
@@ -1858,8 +1858,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="48"/>
@@ -1871,37 +1871,37 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1916,12 +1916,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2057,15 +2054,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED90EC8F-59FD-4FD1-B41D-2067B0AE2CEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627B9F33-52EF-4FD1-854C-E5ABF9D4669E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66c8120c-852b-4f49-8fa7-ff6717d33796"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2089,17 +2097,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627B9F33-52EF-4FD1-854C-E5ABF9D4669E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED90EC8F-59FD-4FD1-B41D-2067B0AE2CEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66c8120c-852b-4f49-8fa7-ff6717d33796"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>